--- a/LCD/tables/assembly_generation.xlsx
+++ b/LCD/tables/assembly_generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92EE1A-A737-428E-9BA6-8A58AF4DAB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA876692-C1A5-4317-9148-A0113E0DDE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mount" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="78">
   <si>
     <t>mass</t>
   </si>
@@ -258,7 +258,10 @@
     <t>metal working, average for chromium steel product manufacturing</t>
   </si>
   <si>
-    <t>.7</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -386,6 +389,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -837,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,8 +991,8 @@
       <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>76</v>
+      <c r="C2" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>0</v>
@@ -1074,8 +1086,8 @@
       <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>76</v>
+      <c r="C3" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>0</v>
@@ -1169,8 +1181,8 @@
       <c r="B4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>76</v>
+      <c r="C4" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>0</v>
@@ -1264,8 +1276,8 @@
       <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>76</v>
+      <c r="C5" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>0</v>
@@ -1359,8 +1371,8 @@
       <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>76</v>
+      <c r="C6" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>0</v>
@@ -1454,8 +1466,8 @@
       <c r="B7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>76</v>
+      <c r="C7" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>0</v>
@@ -1549,8 +1561,8 @@
       <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>76</v>
+      <c r="C8" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>0</v>
@@ -1644,8 +1656,8 @@
       <c r="B9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>76</v>
+      <c r="C9" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>0</v>
@@ -1739,8 +1751,8 @@
       <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>76</v>
+      <c r="C10" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>0</v>
@@ -1834,8 +1846,8 @@
       <c r="B11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>76</v>
+      <c r="C11" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>0</v>
@@ -1929,8 +1941,8 @@
       <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>76</v>
+      <c r="C12" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>0</v>
@@ -2024,8 +2036,8 @@
       <c r="B13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>76</v>
+      <c r="C13" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>0</v>
@@ -2119,8 +2131,8 @@
       <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>76</v>
+      <c r="C14" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>0</v>
@@ -2214,8 +2226,8 @@
       <c r="B15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>76</v>
+      <c r="C15" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>0</v>
@@ -2309,8 +2321,8 @@
       <c r="B16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>76</v>
+      <c r="C16" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>0</v>
@@ -2404,8 +2416,8 @@
       <c r="B17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>76</v>
+      <c r="C17" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>0</v>
@@ -2499,8 +2511,8 @@
       <c r="B18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>76</v>
+      <c r="C18" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>0</v>
@@ -2594,8 +2606,8 @@
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>76</v>
+      <c r="C19" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>0</v>
@@ -2689,8 +2701,8 @@
       <c r="B20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>76</v>
+      <c r="C20" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>0</v>
@@ -2784,8 +2796,8 @@
       <c r="B21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>76</v>
+      <c r="C21" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>0</v>
@@ -2879,8 +2891,8 @@
       <c r="B22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>76</v>
+      <c r="C22" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>0</v>
@@ -2974,8 +2986,8 @@
       <c r="B23" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>76</v>
+      <c r="C23" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>0</v>
@@ -3069,8 +3081,8 @@
       <c r="B24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>76</v>
+      <c r="C24" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>0</v>
@@ -3158,14 +3170,102 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="F25" s="18"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="A25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK25" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C26" s="33"/>
       <c r="F26" s="18"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="5"/>
@@ -3769,7 +3869,7 @@
   <dimension ref="A1:AK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,7 +4010,7 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4023,7 +4123,7 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4136,7 +4236,7 @@
       <c r="B4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4249,7 +4349,7 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4362,7 +4462,7 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -4475,7 +4575,7 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4588,7 +4688,7 @@
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -4701,7 +4801,7 @@
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4814,7 +4914,7 @@
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4927,7 +5027,7 @@
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -5040,7 +5140,7 @@
       <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -5153,7 +5253,7 @@
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -5266,7 +5366,7 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -5379,7 +5479,7 @@
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -5492,7 +5592,7 @@
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5605,7 +5705,7 @@
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -5718,7 +5818,7 @@
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -5831,7 +5931,7 @@
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -5944,7 +6044,7 @@
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -6057,7 +6157,7 @@
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -6170,7 +6270,7 @@
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -6283,7 +6383,7 @@
       <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -6396,7 +6496,7 @@
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -6503,21 +6603,117 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="1"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="1"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="18"/>
-      <c r="AJ25" s="1"/>
+      <c r="A25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>72</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -7004,7 +7200,7 @@
   <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C7" sqref="C7:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7130,7 +7326,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>0</v>
@@ -7229,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>0</v>
@@ -7328,7 +7524,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>0</v>
@@ -7427,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>0</v>
@@ -7553,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>0</v>
@@ -7653,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>0</v>
@@ -7753,7 +7949,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>0</v>
@@ -7853,7 +8049,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>0</v>
@@ -7953,7 +8149,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>0</v>
@@ -8052,7 +8248,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>0</v>
@@ -8152,7 +8348,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>0</v>
@@ -8496,8 +8692,12 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
@@ -8668,8 +8868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C9ACE3-1BE2-423B-9FBC-D50788C433F6}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" activeCellId="1" sqref="C3:C25 D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8795,7 +8995,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>0</v>
@@ -8894,7 +9094,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>0</v>
@@ -8993,7 +9193,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>0</v>
@@ -9092,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>0</v>
@@ -9192,7 +9392,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>0</v>
@@ -9292,7 +9492,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>0</v>
@@ -9392,7 +9592,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>0</v>
@@ -9492,7 +9692,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>0</v>
@@ -9592,7 +9792,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>0</v>
@@ -9692,7 +9892,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>0</v>
@@ -9791,7 +9991,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>0</v>
@@ -9891,7 +10091,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>0</v>
@@ -9990,7 +10190,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>0</v>
@@ -10090,7 +10290,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>0</v>
@@ -10190,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>0</v>
@@ -10290,7 +10490,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>0</v>
@@ -10390,7 +10590,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>0</v>
@@ -10490,7 +10690,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>0</v>
@@ -10589,7 +10789,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>0</v>
@@ -10689,7 +10889,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>0</v>
@@ -10789,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>0</v>
@@ -10889,7 +11089,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>0</v>
@@ -10989,7 +11189,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>0</v>
@@ -11082,24 +11282,99 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="5"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
+      <c r="A25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
